--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja11.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">XII.- USO Y OCUPACIÓN SUPERFICIAL</t>
   </si>
@@ -20,16 +20,16 @@
     <t xml:space="preserve">INDUSTRIAS DE HIDROCARBUROS Y ENERGIA ELECTRICA</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:  56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON SEDE EN: TEPIC, NAYARIT</t>
+    <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:  34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON SEDE EN:</t>
   </si>
   <si>
     <t xml:space="preserve">Con corte al mes de:</t>
   </si>
   <si>
-    <t xml:space="preserve">FEBRERO</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">A) ASUNTOS CONCLUIDOS</t>
@@ -56,6 +56,9 @@
     <t xml:space="preserve">B) Asuntos en tramite de validación de contratos para uso y ocupación superficial, sin controversia.</t>
   </si>
   <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
     <t xml:space="preserve">C) Asuntos en tramite con solicitud de declaración de servidumbre por resolución jurisdiccional.</t>
   </si>
   <si>
@@ -71,7 +74,7 @@
     <t xml:space="preserve">ASUNTOS EN TRAMITE (B+C+DI+DII)</t>
   </si>
   <si>
-    <t xml:space="preserve">2023</t>
+    <t xml:space="preserve">2024</t>
   </si>
   <si>
     <t xml:space="preserve">Hoja 11</t>
@@ -574,7 +577,7 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -600,7 +603,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -632,11 +635,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="1" t="s">
@@ -647,7 +650,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="1" t="s">
@@ -663,13 +666,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -692,11 +695,11 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja11.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">XII.- USO Y OCUPACIÓN SUPERFICIAL</t>
   </si>
@@ -20,16 +20,16 @@
     <t xml:space="preserve">INDUSTRIAS DE HIDROCARBUROS Y ENERGIA ELECTRICA</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:  34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON SEDE EN:</t>
+    <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:  H01_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON SEDE EN: H01_02</t>
   </si>
   <si>
     <t xml:space="preserve">Con corte al mes de:</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">A) ASUNTOS CONCLUIDOS</t>
@@ -50,25 +50,46 @@
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
+    <t xml:space="preserve">H11_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11_04</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">B) Asuntos en tramite de validación de contratos para uso y ocupación superficial, sin controversia.</t>
   </si>
   <si>
-    <t xml:space="preserve">42</t>
+    <t xml:space="preserve">H11_05</t>
   </si>
   <si>
     <t xml:space="preserve">C) Asuntos en tramite con solicitud de declaración de servidumbre por resolución jurisdiccional.</t>
   </si>
   <si>
+    <t xml:space="preserve">H11_06</t>
+  </si>
+  <si>
     <t xml:space="preserve">D) Asuntos en tramite con controversia</t>
   </si>
   <si>
     <t xml:space="preserve">I.- Nulidad de contratos</t>
   </si>
   <si>
+    <t xml:space="preserve">H11_07</t>
+  </si>
+  <si>
     <t xml:space="preserve">II.- Otras controversias vinculadas al tema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11_08</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS EN TRAMITE (B+C+DI+DII)</t>
@@ -536,16 +557,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +592,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -603,13 +624,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -635,26 +656,26 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -666,13 +687,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -695,11 +716,11 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja11.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">XII.- USO Y OCUPACIÓN SUPERFICIAL</t>
   </si>
@@ -20,16 +20,16 @@
     <t xml:space="preserve">INDUSTRIAS DE HIDROCARBUROS Y ENERGIA ELECTRICA</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:  H01_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON SEDE EN: H01_02</t>
+    <t xml:space="preserve">TRIBUNAL UNITARIO AGRARIO DISTRITO:  34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON SEDE EN:</t>
   </si>
   <si>
     <t xml:space="preserve">Con corte al mes de:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">A) ASUNTOS CONCLUIDOS</t>
@@ -50,46 +50,25 @@
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">H11_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H11_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H11_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H11_04</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">B) Asuntos en tramite de validación de contratos para uso y ocupación superficial, sin controversia.</t>
   </si>
   <si>
-    <t xml:space="preserve">H11_05</t>
+    <t xml:space="preserve">42</t>
   </si>
   <si>
     <t xml:space="preserve">C) Asuntos en tramite con solicitud de declaración de servidumbre por resolución jurisdiccional.</t>
   </si>
   <si>
-    <t xml:space="preserve">H11_06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D) Asuntos en tramite con controversia</t>
   </si>
   <si>
     <t xml:space="preserve">I.- Nulidad de contratos</t>
   </si>
   <si>
-    <t xml:space="preserve">H11_07</t>
-  </si>
-  <si>
     <t xml:space="preserve">II.- Otras controversias vinculadas al tema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H11_08</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS EN TRAMITE (B+C+DI+DII)</t>
@@ -557,16 +536,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -592,13 +571,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -624,13 +603,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -656,26 +635,26 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -687,13 +666,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -716,11 +695,11 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja11.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja11.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Con corte al mes de:</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">A) ASUNTOS CONCLUIDOS</t>
